--- a/exercises/lecture 3/build2_ch3_P7cosmetics.xlsx
+++ b/exercises/lecture 3/build2_ch3_P7cosmetics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hebpu\Code_KAMK\K25\JAMK\BusinessAnalytics_Resprictive\exercises\lecture 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B7701-B6A2-4481-9C5A-8F5BD3621D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F56E4C-9030-4580-9281-615FDFC1D3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -979,7 +979,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1174,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1186,7 +1186,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1200,13 +1199,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1214,35 +1213,35 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1277,7 +1276,7 @@
       <alignment horizontal="left" relativeIndent="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2578,7 +2577,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3586EF3-FE6A-41EE-A110-5AB3E0BCDA2E}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3586EF3-FE6A-41EE-A110-5AB3E0BCDA2E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:F48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -6450,7 +6449,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6473,7 +6472,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>0.12</v>
       </c>
       <c r="C2" s="3">
@@ -6482,10 +6481,10 @@
       <c r="D2" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>20</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>12.333333333333334</v>
       </c>
       <c r="H2" t="s">
@@ -6496,7 +6495,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>0.12</v>
       </c>
       <c r="C3" s="3">
@@ -6505,10 +6504,10 @@
       <c r="D3" s="3">
         <v>24.99</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>10</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>7.666666666666667</v>
       </c>
       <c r="H3" t="s">
@@ -6519,7 +6518,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>0.12</v>
       </c>
       <c r="C4" s="3">
@@ -6528,10 +6527,10 @@
       <c r="D4" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>2.6666666666666665</v>
       </c>
       <c r="H4" t="s">
@@ -6542,7 +6541,7 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>0.12</v>
       </c>
       <c r="C5" s="3">
@@ -6551,10 +6550,10 @@
       <c r="D5" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>7</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>6.333333333333333</v>
       </c>
       <c r="H5" t="s">
@@ -6565,7 +6564,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6" s="3">
@@ -6574,10 +6573,10 @@
       <c r="D6" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>6</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -6585,7 +6584,7 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C7" s="3">
@@ -6594,10 +6593,10 @@
       <c r="D7" s="3">
         <v>13.49</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>8</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -6605,7 +6604,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="3">
@@ -6614,10 +6613,10 @@
       <c r="D8" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -6625,7 +6624,7 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>0.12</v>
       </c>
       <c r="C9" s="3">
@@ -6634,10 +6633,10 @@
       <c r="D9" s="3">
         <v>24.99</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>35</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>27</v>
       </c>
     </row>
@@ -6645,7 +6644,7 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>0.12</v>
       </c>
       <c r="C10" s="3">
@@ -6654,10 +6653,10 @@
       <c r="D10" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>14</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>10.333333333333334</v>
       </c>
     </row>
@@ -6665,7 +6664,7 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>0.12</v>
       </c>
       <c r="C11" s="3">
@@ -6674,10 +6673,10 @@
       <c r="D11" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>11</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>6</v>
       </c>
     </row>
@@ -6685,7 +6684,7 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>0.12</v>
       </c>
       <c r="C12" s="3">
@@ -6694,10 +6693,10 @@
       <c r="D12" s="3">
         <v>44.99</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>7</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -6705,7 +6704,7 @@
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>0.17</v>
       </c>
       <c r="C13" s="3">
@@ -6714,10 +6713,10 @@
       <c r="D13" s="3">
         <v>13.49</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>29</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>18.333333333333332</v>
       </c>
     </row>
@@ -6725,7 +6724,7 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>0.17</v>
       </c>
       <c r="C14" s="3">
@@ -6734,10 +6733,10 @@
       <c r="D14" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>3</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>2</v>
       </c>
     </row>
@@ -6745,7 +6744,7 @@
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C15" s="3">
@@ -6754,10 +6753,10 @@
       <c r="D15" s="3">
         <v>44.99</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>18</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>12.333333333333334</v>
       </c>
     </row>
@@ -6765,7 +6764,7 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C16" s="3">
@@ -6774,10 +6773,10 @@
       <c r="D16" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>33</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>23.333333333333332</v>
       </c>
     </row>
@@ -6785,7 +6784,7 @@
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C17" s="3">
@@ -6794,10 +6793,10 @@
       <c r="D17" s="3">
         <v>44.99</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>6</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -6805,7 +6804,7 @@
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C18" s="3">
@@ -6814,10 +6813,10 @@
       <c r="D18" s="3">
         <v>14.49</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>18</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>13.666666666666666</v>
       </c>
     </row>
@@ -6825,7 +6824,7 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>0.12</v>
       </c>
       <c r="C19" s="3">
@@ -6834,10 +6833,10 @@
       <c r="D19" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>8</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>7</v>
       </c>
     </row>
@@ -6845,7 +6844,7 @@
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>0.12</v>
       </c>
       <c r="C20" s="3">
@@ -6854,10 +6853,10 @@
       <c r="D20" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>25</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>9</v>
       </c>
     </row>
@@ -6865,7 +6864,7 @@
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>0.17</v>
       </c>
       <c r="C21" s="3">
@@ -6874,10 +6873,10 @@
       <c r="D21" s="3">
         <v>24.99</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>4</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -6885,7 +6884,7 @@
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>0.17</v>
       </c>
       <c r="C22" s="3">
@@ -6894,10 +6893,10 @@
       <c r="D22" s="3">
         <v>24.99</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>5</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -6905,7 +6904,7 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>0.17</v>
       </c>
       <c r="C23" s="3">
@@ -6914,10 +6913,10 @@
       <c r="D23" s="3">
         <v>14.49</v>
       </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -6925,7 +6924,7 @@
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C24" s="3">
@@ -6934,10 +6933,10 @@
       <c r="D24" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -6945,7 +6944,7 @@
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C25" s="3">
@@ -6954,10 +6953,10 @@
       <c r="D25" s="3">
         <v>24.99</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>6</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>3</v>
       </c>
     </row>
@@ -6965,7 +6964,7 @@
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>0.12</v>
       </c>
       <c r="C26" s="3">
@@ -6974,10 +6973,10 @@
       <c r="D26" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>1</v>
       </c>
     </row>
@@ -6985,7 +6984,7 @@
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>0.12</v>
       </c>
       <c r="C27" s="3">
@@ -6994,10 +6993,10 @@
       <c r="D27" s="3">
         <v>44.99</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>6</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>5</v>
       </c>
     </row>
@@ -7005,7 +7004,7 @@
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>0.12</v>
       </c>
       <c r="C28" s="3">
@@ -7014,10 +7013,10 @@
       <c r="D28" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>13</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>11.666666666666666</v>
       </c>
     </row>
@@ -7025,7 +7024,7 @@
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>0.12</v>
       </c>
       <c r="C29" s="3">
@@ -7034,10 +7033,10 @@
       <c r="D29" s="3">
         <v>24.99</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>5</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -7045,7 +7044,7 @@
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>0.12</v>
       </c>
       <c r="C30" s="3">
@@ -7054,10 +7053,10 @@
       <c r="D30" s="3">
         <v>13.49</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>12</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>5</v>
       </c>
     </row>
@@ -7065,7 +7064,7 @@
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C31" s="3">
@@ -7074,10 +7073,10 @@
       <c r="D31" s="3">
         <v>14.49</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>3</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -7085,7 +7084,7 @@
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>0.17</v>
       </c>
       <c r="C32" s="3">
@@ -7094,10 +7093,10 @@
       <c r="D32" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>18</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>11.666666666666666</v>
       </c>
     </row>
@@ -7105,7 +7104,7 @@
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>0.17</v>
       </c>
       <c r="C33" s="3">
@@ -7114,10 +7113,10 @@
       <c r="D33" s="3">
         <v>14.49</v>
       </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -7125,7 +7124,7 @@
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>0.12</v>
       </c>
       <c r="C34" s="3">
@@ -7134,10 +7133,10 @@
       <c r="D34" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>7</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>4.5</v>
       </c>
     </row>
@@ -7145,7 +7144,7 @@
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>0.12</v>
       </c>
       <c r="C35" s="3">
@@ -7154,10 +7153,10 @@
       <c r="D35" s="3">
         <v>24.99</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>3</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -7165,7 +7164,7 @@
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C36" s="3">
@@ -7174,10 +7173,10 @@
       <c r="D36" s="3">
         <v>13.49</v>
       </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8">
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -7185,7 +7184,7 @@
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C37" s="3">
@@ -7194,10 +7193,10 @@
       <c r="D37" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7205,7 +7204,7 @@
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>9.5000000000000015E-2</v>
       </c>
       <c r="C38" s="3">
@@ -7214,10 +7213,10 @@
       <c r="D38" s="3">
         <v>24.99</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>7</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>3</v>
       </c>
     </row>
@@ -7225,7 +7224,7 @@
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>0.12</v>
       </c>
       <c r="C39" s="3">
@@ -7234,10 +7233,10 @@
       <c r="D39" s="3">
         <v>14.49</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>4</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -7245,7 +7244,7 @@
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40">
         <v>0.12</v>
       </c>
       <c r="C40" s="3">
@@ -7254,10 +7253,10 @@
       <c r="D40" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>8</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -7265,7 +7264,7 @@
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>0.17</v>
       </c>
       <c r="C41" s="3">
@@ -7274,10 +7273,10 @@
       <c r="D41" s="3">
         <v>13.49</v>
       </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -7285,7 +7284,7 @@
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>0.17</v>
       </c>
       <c r="C42" s="3">
@@ -7294,10 +7293,10 @@
       <c r="D42" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>5</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>3</v>
       </c>
     </row>
@@ -7305,7 +7304,7 @@
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C43" s="3">
@@ -7314,10 +7313,10 @@
       <c r="D43" s="3">
         <v>44.99</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>7</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -7325,7 +7324,7 @@
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C44" s="3">
@@ -7334,10 +7333,10 @@
       <c r="D44" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>3</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="7">
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -7345,7 +7344,7 @@
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C45" s="3">
@@ -7354,10 +7353,10 @@
       <c r="D45" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>11</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -7365,7 +7364,7 @@
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46">
         <v>0.12</v>
       </c>
       <c r="C46" s="3">
@@ -7374,10 +7373,10 @@
       <c r="D46" s="3">
         <v>17.989999999999998</v>
       </c>
-      <c r="E46" s="6">
-        <v>1</v>
-      </c>
-      <c r="F46" s="8">
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -7385,7 +7384,7 @@
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>0.12</v>
       </c>
       <c r="C47" s="3">
@@ -7394,10 +7393,10 @@
       <c r="D47" s="3">
         <v>13.49</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>5</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="7">
         <v>1.8333333333333333</v>
       </c>
     </row>
@@ -7405,7 +7404,7 @@
       <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>0.11299999999999995</v>
       </c>
       <c r="C48" s="3">
@@ -7414,10 +7413,10 @@
       <c r="D48" s="3">
         <v>20.969999999999921</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>35</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <v>5.6</v>
       </c>
     </row>
@@ -7430,8 +7429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7446,59 +7445,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="8" t="str">
         <f>PT!A1</f>
         <v>Row Labels</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="8" t="str">
         <f>PT!B1</f>
         <v>Average of Processing Time (in hours) per line per unit</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="8" t="str">
         <f>PT!C1</f>
         <v>Average of Raw Materials Cost per unit</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="8" t="str">
         <f>PT!D1</f>
         <v>Average of Retail Price per unit</v>
       </c>
-      <c r="E1" s="9" t="str">
+      <c r="E1" s="8" t="str">
         <f>PT!E1</f>
         <v>Max of  Monthly Demand in units</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="9" t="str">
+      <c r="G1" s="8" t="str">
         <f>PT!F1</f>
         <v>Average of  Monthly Demand in units</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="20" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>65</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -7507,7 +7506,7 @@
       <c r="W1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>67</v>
       </c>
       <c r="Y1" s="1"/>
@@ -7517,7 +7516,7 @@
         <f>PT!A2</f>
         <v>AGR-51NG</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <f>PT!B2</f>
         <v>0.12</v>
       </c>
@@ -7529,23 +7528,23 @@
         <f>PT!D2</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>PT!E2</f>
         <v>20</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <f>B2*K2</f>
         <v>2.4</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>PT!F2</f>
         <v>12.333333333333334</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="20">
         <f>(D2-(C2-B2*$V$2))*K2</f>
         <v>258.59999999999997</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <f>(B2*$V$2)*K2</f>
         <v>28.799999999999997</v>
       </c>
@@ -7553,22 +7552,22 @@
         <f>C2*K2</f>
         <v>130</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="32">
         <v>20</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="22">
         <v>3000</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="23">
         <v>40</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="12">
         <v>12</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="13">
         <f>U2*V2</f>
         <v>480</v>
       </c>
@@ -7578,7 +7577,7 @@
         <f>PT!A3</f>
         <v>BFF-58NG</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <f>PT!B3</f>
         <v>0.12</v>
       </c>
@@ -7590,23 +7589,23 @@
         <f>PT!D3</f>
         <v>24.99</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>PT!E3</f>
         <v>10</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <f t="shared" ref="F3:F47" si="0">B3*K3</f>
         <v>1.2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>PT!F3</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <f t="shared" ref="H3:H47" si="1">(D3-(C3-B3*$V$2))*K3</f>
         <v>159.29999999999998</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <f t="shared" ref="I3:I47" si="2">(B3*$V$2)*K3</f>
         <v>14.399999999999999</v>
       </c>
@@ -7614,10 +7613,10 @@
         <f t="shared" ref="J3:J47" si="3">C3*K3</f>
         <v>105</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="32">
         <v>10</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7626,7 +7625,7 @@
         <f>PT!A4</f>
         <v>BOS-51NG</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <f>PT!B4</f>
         <v>0.12</v>
       </c>
@@ -7638,23 +7637,23 @@
         <f>PT!D4</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>PT!E4</f>
         <v>5</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>PT!F4</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <f t="shared" si="1"/>
         <v>64.649999999999991</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <f t="shared" si="2"/>
         <v>7.1999999999999993</v>
       </c>
@@ -7662,10 +7661,10 @@
         <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="32">
         <v>5</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7674,7 +7673,7 @@
         <f>PT!A5</f>
         <v>BRI-51NG</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <f>PT!B5</f>
         <v>0.12</v>
       </c>
@@ -7686,23 +7685,23 @@
         <f>PT!D5</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>PT!E5</f>
         <v>7</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>PT!F5</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <f t="shared" si="1"/>
         <v>90.509999999999991</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <f t="shared" si="2"/>
         <v>10.08</v>
       </c>
@@ -7710,7 +7709,7 @@
         <f t="shared" si="3"/>
         <v>45.5</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="32">
         <v>7</v>
       </c>
     </row>
@@ -7719,7 +7718,7 @@
         <f>PT!A6</f>
         <v>BUB-51NG</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <f>PT!B6</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7731,23 +7730,23 @@
         <f>PT!D6</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>PT!E6</f>
         <v>6</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>PT!F6</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <f t="shared" si="1"/>
         <v>73.97999999999999</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <f t="shared" si="2"/>
         <v>5.0400000000000009</v>
       </c>
@@ -7755,7 +7754,7 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="32">
         <v>6</v>
       </c>
     </row>
@@ -7764,7 +7763,7 @@
         <f>PT!A7</f>
         <v>CHE-47NG</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <f>PT!B7</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7776,23 +7775,23 @@
         <f>PT!D7</f>
         <v>13.49</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>PT!E7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>PT!F7</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <f t="shared" si="1"/>
         <v>86.64</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <f t="shared" si="2"/>
         <v>6.7200000000000006</v>
       </c>
@@ -7800,7 +7799,7 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="32">
         <v>8</v>
       </c>
     </row>
@@ -7809,7 +7808,7 @@
         <f>PT!A8</f>
         <v>CHO-51NG</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <f>PT!B8</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7821,23 +7820,23 @@
         <f>PT!D8</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f>PT!E8</f>
         <v>5</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f>PT!F8</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <f t="shared" si="1"/>
         <v>61.649999999999991</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
@@ -7845,7 +7844,7 @@
         <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="32">
         <v>5</v>
       </c>
     </row>
@@ -7854,7 +7853,7 @@
         <f>PT!A9</f>
         <v>COS-58NG</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <f>PT!B9</f>
         <v>0.12</v>
       </c>
@@ -7866,23 +7865,23 @@
         <f>PT!D9</f>
         <v>24.99</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>PT!E9</f>
         <v>35</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f>PT!F9</f>
         <v>27</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
         <v>557.54999999999995</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <f t="shared" si="2"/>
         <v>50.4</v>
       </c>
@@ -7890,7 +7889,7 @@
         <f t="shared" si="3"/>
         <v>367.5</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="32">
         <v>35</v>
       </c>
     </row>
@@ -7899,7 +7898,7 @@
         <f>PT!A10</f>
         <v>CRE-51NG</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <f>PT!B10</f>
         <v>0.12</v>
       </c>
@@ -7911,23 +7910,23 @@
         <f>PT!D10</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>PT!E10</f>
         <v>14</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <f t="shared" si="0"/>
         <v>1.68</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f>PT!F10</f>
         <v>10.333333333333334</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <f t="shared" si="1"/>
         <v>181.01999999999998</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <f t="shared" si="2"/>
         <v>20.16</v>
       </c>
@@ -7935,7 +7934,7 @@
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="32">
         <v>14</v>
       </c>
     </row>
@@ -7944,7 +7943,7 @@
         <f>PT!A11</f>
         <v>DET-51NG</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <f>PT!B11</f>
         <v>0.12</v>
       </c>
@@ -7956,23 +7955,23 @@
         <f>PT!D11</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f>PT!E11</f>
         <v>11</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>1.3199999999999998</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f>PT!F11</f>
         <v>6</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <f t="shared" si="1"/>
         <v>142.22999999999999</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <f t="shared" si="2"/>
         <v>15.84</v>
       </c>
@@ -7980,7 +7979,7 @@
         <f t="shared" si="3"/>
         <v>71.5</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="32">
         <v>11</v>
       </c>
     </row>
@@ -7989,7 +7988,7 @@
         <f>PT!A12</f>
         <v>EXC-78NG</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <f>PT!B12</f>
         <v>0.12</v>
       </c>
@@ -8001,23 +8000,23 @@
         <f>PT!D12</f>
         <v>44.99</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f>PT!E12</f>
         <v>7</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
         <v>0.15582255083179697</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>PT!F12</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <f t="shared" si="1"/>
         <v>33.670656192237473</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f t="shared" si="2"/>
         <v>1.8698706099815638</v>
       </c>
@@ -8025,7 +8024,7 @@
         <f t="shared" si="3"/>
         <v>26.619685767098652</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="32">
         <v>1.2985212569316416</v>
       </c>
     </row>
@@ -8034,7 +8033,7 @@
         <f>PT!A13</f>
         <v>EXP-47NG</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <f>PT!B13</f>
         <v>0.17</v>
       </c>
@@ -8046,23 +8045,23 @@
         <f>PT!D13</f>
         <v>13.49</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f>PT!E13</f>
         <v>29</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>4.9300000000000006</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f>PT!F13</f>
         <v>18.333333333333332</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <f t="shared" si="1"/>
         <v>348.87</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <f t="shared" si="2"/>
         <v>59.160000000000004</v>
       </c>
@@ -8070,7 +8069,7 @@
         <f t="shared" si="3"/>
         <v>101.5</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="32">
         <v>29</v>
       </c>
     </row>
@@ -8079,7 +8078,7 @@
         <f>PT!A14</f>
         <v>EXP-51NG</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <f>PT!B14</f>
         <v>0.17</v>
       </c>
@@ -8091,23 +8090,23 @@
         <f>PT!D14</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f>PT!E14</f>
         <v>3</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f>PT!F14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <f t="shared" si="1"/>
         <v>40.589999999999989</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <f t="shared" si="2"/>
         <v>6.12</v>
       </c>
@@ -8115,7 +8114,7 @@
         <f t="shared" si="3"/>
         <v>19.5</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="32">
         <v>3</v>
       </c>
     </row>
@@ -8124,7 +8123,7 @@
         <f>PT!A15</f>
         <v>FAS-78NG</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <f>PT!B15</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8136,23 +8135,23 @@
         <f>PT!D15</f>
         <v>44.99</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>PT!E15</f>
         <v>18</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <f t="shared" si="0"/>
         <v>1.2600000000000002</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>PT!F15</f>
         <v>12.333333333333334</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <f t="shared" si="1"/>
         <v>455.94000000000005</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <f t="shared" si="2"/>
         <v>15.120000000000001</v>
       </c>
@@ -8160,7 +8159,7 @@
         <f t="shared" si="3"/>
         <v>369</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="32">
         <v>18</v>
       </c>
     </row>
@@ -8169,7 +8168,7 @@
         <f>PT!A16</f>
         <v>FEI-51NG</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <f>PT!B16</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8181,23 +8180,23 @@
         <f>PT!D16</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f>PT!E16</f>
         <v>33</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
         <v>2.31</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f>PT!F16</f>
         <v>23.333333333333332</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <f t="shared" si="1"/>
         <v>406.88999999999993</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <f t="shared" si="2"/>
         <v>27.720000000000002</v>
       </c>
@@ -8205,7 +8204,7 @@
         <f t="shared" si="3"/>
         <v>214.5</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="32">
         <v>33</v>
       </c>
     </row>
@@ -8214,7 +8213,7 @@
         <f>PT!A17</f>
         <v>FIE-78NG</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <f>PT!B17</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8226,23 +8225,23 @@
         <f>PT!D17</f>
         <v>44.99</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>PT!E17</f>
         <v>6</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <f t="shared" si="0"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f>PT!F17</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <f t="shared" si="1"/>
         <v>151.98000000000002</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <f t="shared" si="2"/>
         <v>5.0400000000000009</v>
       </c>
@@ -8250,7 +8249,7 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <v>6</v>
       </c>
     </row>
@@ -8259,7 +8258,7 @@
         <f>PT!A18</f>
         <v>FLA-48RS</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <f>PT!B18</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8271,23 +8270,23 @@
         <f>PT!D18</f>
         <v>14.49</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f>PT!E18</f>
         <v>18</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <f t="shared" si="0"/>
         <v>1.2600000000000002</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f>PT!F18</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <f t="shared" si="1"/>
         <v>194.94</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <f t="shared" si="2"/>
         <v>15.120000000000001</v>
       </c>
@@ -8295,7 +8294,7 @@
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="32">
         <v>18</v>
       </c>
     </row>
@@ -8304,7 +8303,7 @@
         <f>PT!A19</f>
         <v>FOX-51NG</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <f>PT!B19</f>
         <v>0.12</v>
       </c>
@@ -8316,23 +8315,23 @@
         <f>PT!D19</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f>PT!E19</f>
         <v>8</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f>PT!F19</f>
         <v>7</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <f t="shared" si="1"/>
         <v>103.43999999999998</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <f t="shared" si="2"/>
         <v>11.52</v>
       </c>
@@ -8340,7 +8339,7 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="32">
         <v>8</v>
       </c>
     </row>
@@ -8349,7 +8348,7 @@
         <f>PT!A20</f>
         <v>FUN-51NG</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <f>PT!B20</f>
         <v>0.12</v>
       </c>
@@ -8361,23 +8360,23 @@
         <f>PT!D20</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <f>PT!E20</f>
         <v>25</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f>PT!F20</f>
         <v>9</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <f t="shared" si="1"/>
         <v>323.24999999999994</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -8385,7 +8384,7 @@
         <f t="shared" si="3"/>
         <v>162.5</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="32">
         <v>25</v>
       </c>
     </row>
@@ -8394,7 +8393,7 @@
         <f>PT!A21</f>
         <v>GO -58NG</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <f>PT!B21</f>
         <v>0.17</v>
       </c>
@@ -8406,23 +8405,23 @@
         <f>PT!D21</f>
         <v>24.99</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f>PT!E21</f>
         <v>4</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <f>PT!F21</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8430,7 +8429,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="32">
         <v>0</v>
       </c>
     </row>
@@ -8439,7 +8438,7 @@
         <f>PT!A22</f>
         <v>GOT-58NG</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <f>PT!B22</f>
         <v>0.17</v>
       </c>
@@ -8451,23 +8450,23 @@
         <f>PT!D22</f>
         <v>24.99</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f>PT!E22</f>
         <v>5</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f>PT!F22</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8475,7 +8474,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="32">
         <v>0</v>
       </c>
     </row>
@@ -8484,7 +8483,7 @@
         <f>PT!A23</f>
         <v>HAP-48NG</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <f>PT!B23</f>
         <v>0.17</v>
       </c>
@@ -8496,23 +8495,23 @@
         <f>PT!D23</f>
         <v>14.49</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f>PT!E23</f>
         <v>1</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <f>PT!F23</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <f t="shared" si="1"/>
         <v>12.030000000000001</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <f t="shared" si="2"/>
         <v>2.04</v>
       </c>
@@ -8520,7 +8519,7 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="32">
         <v>1</v>
       </c>
     </row>
@@ -8529,7 +8528,7 @@
         <f>PT!A24</f>
         <v>HIG-51ED</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <f>PT!B24</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8541,23 +8540,23 @@
         <f>PT!D24</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <f>PT!E24</f>
         <v>2</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f>PT!F24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <f t="shared" si="1"/>
         <v>24.659999999999997</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <f t="shared" si="2"/>
         <v>1.6800000000000002</v>
       </c>
@@ -8565,7 +8564,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="32">
         <v>2</v>
       </c>
     </row>
@@ -8574,7 +8573,7 @@
         <f>PT!A25</f>
         <v>INQ-58NG</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <f>PT!B25</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8586,23 +8585,23 @@
         <f>PT!D25</f>
         <v>24.99</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f>PT!E25</f>
         <v>6</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <f t="shared" si="0"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f>PT!F25</f>
         <v>3</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <f t="shared" si="1"/>
         <v>91.97999999999999</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <f t="shared" si="2"/>
         <v>5.0400000000000009</v>
       </c>
@@ -8610,7 +8609,7 @@
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="32">
         <v>6</v>
       </c>
     </row>
@@ -8619,7 +8618,7 @@
         <f>PT!A26</f>
         <v>INS-51NG</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <f>PT!B26</f>
         <v>0.12</v>
       </c>
@@ -8631,23 +8630,23 @@
         <f>PT!D26</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <f>PT!E26</f>
         <v>2</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <f>PT!F26</f>
         <v>1</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <f t="shared" si="1"/>
         <v>25.859999999999996</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <f t="shared" si="2"/>
         <v>2.88</v>
       </c>
@@ -8655,7 +8654,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="32">
         <v>2</v>
       </c>
     </row>
@@ -8664,7 +8663,7 @@
         <f>PT!A27</f>
         <v xml:space="preserve">INT-78G </v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <f>PT!B27</f>
         <v>0.12</v>
       </c>
@@ -8676,23 +8675,23 @@
         <f>PT!D27</f>
         <v>44.99</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f>PT!E27</f>
         <v>6</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <f>PT!F27</f>
         <v>5</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20">
         <f t="shared" si="1"/>
         <v>155.58000000000001</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <f t="shared" si="2"/>
         <v>8.64</v>
       </c>
@@ -8700,7 +8699,7 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="32">
         <v>6</v>
       </c>
     </row>
@@ -8709,7 +8708,7 @@
         <f>PT!A28</f>
         <v>INV-51NG</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <f>PT!B28</f>
         <v>0.12</v>
       </c>
@@ -8721,23 +8720,23 @@
         <f>PT!D28</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f>PT!E28</f>
         <v>13</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <f t="shared" si="0"/>
         <v>1.56</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <f>PT!F28</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="20">
         <f t="shared" si="1"/>
         <v>168.08999999999997</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <f t="shared" si="2"/>
         <v>18.72</v>
       </c>
@@ -8745,7 +8744,7 @@
         <f t="shared" si="3"/>
         <v>84.5</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="32">
         <v>13</v>
       </c>
     </row>
@@ -8754,7 +8753,7 @@
         <f>PT!A29</f>
         <v>ITS-58NG</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <f>PT!B29</f>
         <v>0.12</v>
       </c>
@@ -8766,23 +8765,23 @@
         <f>PT!D29</f>
         <v>24.99</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f>PT!E29</f>
         <v>5</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <f>PT!F29</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20">
         <f t="shared" si="1"/>
         <v>79.649999999999991</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <f t="shared" si="2"/>
         <v>7.1999999999999993</v>
       </c>
@@ -8790,7 +8789,7 @@
         <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="32">
         <v>5</v>
       </c>
     </row>
@@ -8799,7 +8798,7 @@
         <f>PT!A30</f>
         <v xml:space="preserve">KHA-47G </v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <f>PT!B30</f>
         <v>0.12</v>
       </c>
@@ -8811,23 +8810,23 @@
         <f>PT!D30</f>
         <v>13.49</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f>PT!E30</f>
         <v>12</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <f t="shared" si="0"/>
         <v>1.44</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <f>PT!F30</f>
         <v>5</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <f t="shared" si="1"/>
         <v>137.16</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <f t="shared" si="2"/>
         <v>17.28</v>
       </c>
@@ -8835,7 +8834,7 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="32">
         <v>12</v>
       </c>
     </row>
@@ -8844,7 +8843,7 @@
         <f>PT!A31</f>
         <v>LAR-48NG</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <f>PT!B31</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8856,23 +8855,23 @@
         <f>PT!D31</f>
         <v>14.49</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <f>PT!E31</f>
         <v>3</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <f t="shared" si="0"/>
         <v>0.21000000000000002</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <f>PT!F31</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <f t="shared" si="1"/>
         <v>32.49</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="13">
         <f t="shared" si="2"/>
         <v>2.5200000000000005</v>
       </c>
@@ -8880,7 +8879,7 @@
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="32">
         <v>3</v>
       </c>
     </row>
@@ -8889,7 +8888,7 @@
         <f>PT!A32</f>
         <v>LIV-51NG</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <f>PT!B32</f>
         <v>0.17</v>
       </c>
@@ -8901,23 +8900,23 @@
         <f>PT!D32</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <f>PT!E32</f>
         <v>18</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <f>PT!F32</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8925,7 +8924,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="32">
         <v>0</v>
       </c>
     </row>
@@ -8934,7 +8933,7 @@
         <f>PT!A33</f>
         <v>NO -48NG</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <f>PT!B33</f>
         <v>0.17</v>
       </c>
@@ -8946,23 +8945,23 @@
         <f>PT!D33</f>
         <v>14.49</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <f>PT!E33</f>
         <v>1</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <f>PT!F33</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="20">
         <f t="shared" si="1"/>
         <v>12.030000000000001</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <f t="shared" si="2"/>
         <v>2.04</v>
       </c>
@@ -8970,7 +8969,7 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="32">
         <v>1</v>
       </c>
     </row>
@@ -8979,7 +8978,7 @@
         <f>PT!A34</f>
         <v>NON-51NG</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <f>PT!B34</f>
         <v>0.12</v>
       </c>
@@ -8991,23 +8990,23 @@
         <f>PT!D34</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <f>PT!E34</f>
         <v>7</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="18">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <f>PT!F34</f>
         <v>4.5</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <f t="shared" si="1"/>
         <v>90.509999999999991</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="13">
         <f t="shared" si="2"/>
         <v>10.08</v>
       </c>
@@ -9015,7 +9014,7 @@
         <f t="shared" si="3"/>
         <v>45.5</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="32">
         <v>7</v>
       </c>
     </row>
@@ -9024,7 +9023,7 @@
         <f>PT!A35</f>
         <v>NOT-58NG</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <f>PT!B35</f>
         <v>0.12</v>
       </c>
@@ -9036,23 +9035,23 @@
         <f>PT!D35</f>
         <v>24.99</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <f>PT!E35</f>
         <v>3</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <f>PT!F35</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <f t="shared" si="1"/>
         <v>47.789999999999992</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="13">
         <f t="shared" si="2"/>
         <v>4.32</v>
       </c>
@@ -9060,7 +9059,7 @@
         <f t="shared" si="3"/>
         <v>31.5</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="32">
         <v>3</v>
       </c>
     </row>
@@ -9069,7 +9068,7 @@
         <f>PT!A36</f>
         <v>NUT-47NG</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <f>PT!B36</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9081,23 +9080,23 @@
         <f>PT!D36</f>
         <v>13.49</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <f>PT!E36</f>
         <v>1</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <f>PT!F36</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="20">
         <f t="shared" si="1"/>
         <v>10.83</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="13">
         <f t="shared" si="2"/>
         <v>0.84000000000000008</v>
       </c>
@@ -9105,7 +9104,7 @@
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="32">
         <v>1</v>
       </c>
     </row>
@@ -9114,7 +9113,7 @@
         <f>PT!A37</f>
         <v>OCT-51NG</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <f>PT!B37</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9126,23 +9125,23 @@
         <f>PT!D37</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <f>PT!E37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <f>PT!F37</f>
         <v>0</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9150,7 +9149,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="32">
         <v>0</v>
       </c>
     </row>
@@ -9159,7 +9158,7 @@
         <f>PT!A38</f>
         <v>ON -58NG</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <f>PT!B38</f>
         <v>9.5000000000000015E-2</v>
       </c>
@@ -9171,23 +9170,23 @@
         <f>PT!D38</f>
         <v>24.99</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <f>PT!E38</f>
         <v>7</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="18">
         <f t="shared" si="0"/>
         <v>0.66500000000000015</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <f>PT!F38</f>
         <v>3</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="20">
         <f t="shared" si="1"/>
         <v>109.41</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="13">
         <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
@@ -9195,7 +9194,7 @@
         <f t="shared" si="3"/>
         <v>73.5</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="32">
         <v>7</v>
       </c>
     </row>
@@ -9204,7 +9203,7 @@
         <f>PT!A39</f>
         <v>PEA-48NG</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <f>PT!B39</f>
         <v>0.12</v>
       </c>
@@ -9216,23 +9215,23 @@
         <f>PT!D39</f>
         <v>14.49</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <f>PT!E39</f>
         <v>4</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="18">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <f>PT!F39</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="20">
         <f t="shared" si="1"/>
         <v>45.72</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="13">
         <f t="shared" si="2"/>
         <v>5.76</v>
       </c>
@@ -9240,7 +9239,7 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="32">
         <v>4</v>
       </c>
     </row>
@@ -9249,7 +9248,7 @@
         <f>PT!A40</f>
         <v>PEA-51NG</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40">
         <f>PT!B40</f>
         <v>0.12</v>
       </c>
@@ -9261,23 +9260,23 @@
         <f>PT!D40</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <f>PT!E40</f>
         <v>8</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="18">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <f>PT!F40</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="20">
         <f t="shared" si="1"/>
         <v>103.43999999999998</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="13">
         <f t="shared" si="2"/>
         <v>11.52</v>
       </c>
@@ -9285,7 +9284,7 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="32">
         <v>8</v>
       </c>
     </row>
@@ -9294,7 +9293,7 @@
         <f>PT!A41</f>
         <v>PEC-47NG</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <f>PT!B41</f>
         <v>0.17</v>
       </c>
@@ -9306,23 +9305,23 @@
         <f>PT!D41</f>
         <v>13.49</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <f>PT!E41</f>
         <v>1</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="18">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <f>PT!F41</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="20">
         <f t="shared" si="1"/>
         <v>12.030000000000001</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="13">
         <f t="shared" si="2"/>
         <v>2.04</v>
       </c>
@@ -9330,7 +9329,7 @@
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="32">
         <v>1</v>
       </c>
     </row>
@@ -9339,7 +9338,7 @@
         <f>PT!A42</f>
         <v>PER-51NG</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42">
         <f>PT!B42</f>
         <v>0.17</v>
       </c>
@@ -9351,23 +9350,23 @@
         <f>PT!D42</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <f>PT!E42</f>
         <v>5</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="18">
         <f t="shared" si="0"/>
         <v>0.21917744916818885</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <f>PT!F42</f>
         <v>3</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="20">
         <f t="shared" si="1"/>
         <v>17.443946395562321</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="13">
         <f t="shared" si="2"/>
         <v>2.6301293900182658</v>
       </c>
@@ -9375,7 +9374,7 @@
         <f t="shared" si="3"/>
         <v>8.3803142329013376</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="32">
         <v>1.2892791127540519</v>
       </c>
     </row>
@@ -9384,7 +9383,7 @@
         <f>PT!A43</f>
         <v>PRE-78NG</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <f>PT!B43</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9396,23 +9395,23 @@
         <f>PT!D43</f>
         <v>44.99</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <f>PT!E43</f>
         <v>7</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="18">
         <f t="shared" si="0"/>
         <v>0.49000000000000005</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <f>PT!F43</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="20">
         <f t="shared" si="1"/>
         <v>177.31</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="13">
         <f t="shared" si="2"/>
         <v>5.8800000000000008</v>
       </c>
@@ -9420,7 +9419,7 @@
         <f t="shared" si="3"/>
         <v>143.5</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="32">
         <v>7</v>
       </c>
     </row>
@@ -9429,7 +9428,7 @@
         <f>PT!A44</f>
         <v>REF-51NG</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44">
         <f>PT!B44</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9441,23 +9440,23 @@
         <f>PT!D44</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <f>PT!E44</f>
         <v>3</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="18">
         <f t="shared" si="0"/>
         <v>0.21000000000000002</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <f>PT!F44</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="20">
         <f t="shared" si="1"/>
         <v>36.989999999999995</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="13">
         <f t="shared" si="2"/>
         <v>2.5200000000000005</v>
       </c>
@@ -9465,7 +9464,7 @@
         <f t="shared" si="3"/>
         <v>19.5</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K44" s="32">
         <v>3</v>
       </c>
     </row>
@@ -9474,7 +9473,7 @@
         <f>PT!A45</f>
         <v>RES-51NG</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <f>PT!B45</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9486,23 +9485,23 @@
         <f>PT!D45</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <f>PT!E45</f>
         <v>11</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="18">
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <f>PT!F45</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="20">
         <f t="shared" si="1"/>
         <v>135.63</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="13">
         <f t="shared" si="2"/>
         <v>9.24</v>
       </c>
@@ -9510,7 +9509,7 @@
         <f t="shared" si="3"/>
         <v>71.5</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="32">
         <v>11</v>
       </c>
     </row>
@@ -9519,7 +9518,7 @@
         <f>PT!A46</f>
         <v>ROY-51NG</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46">
         <f>PT!B46</f>
         <v>0.12</v>
       </c>
@@ -9531,23 +9530,23 @@
         <f>PT!D46</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <f>PT!E46</f>
         <v>1</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="18">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <f>PT!F46</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="20">
         <f t="shared" si="1"/>
         <v>12.929999999999998</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="13">
         <f t="shared" si="2"/>
         <v>1.44</v>
       </c>
@@ -9555,7 +9554,7 @@
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="32">
         <v>1</v>
       </c>
     </row>
@@ -9564,7 +9563,7 @@
         <f>PT!A47</f>
         <v>SIE-47NG</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <f>PT!B47</f>
         <v>0.12</v>
       </c>
@@ -9576,23 +9575,23 @@
         <f>PT!D47</f>
         <v>13.49</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <f>PT!E47</f>
         <v>5</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="18">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <f>PT!F47</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="20">
         <f t="shared" si="1"/>
         <v>57.15</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="13">
         <f t="shared" si="2"/>
         <v>7.1999999999999993</v>
       </c>
@@ -9600,33 +9599,33 @@
         <f t="shared" si="3"/>
         <v>17.5</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="str">
+      <c r="A48" s="9" t="str">
         <f>PT!A48</f>
         <v>Grand Total</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="35">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="34">
         <f>SUM(F2:F47)</f>
         <v>39.999999999999993</v>
       </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="15">
+      <c r="G48" s="8"/>
+      <c r="H48" s="14">
         <f>SUM(H2:H47)</f>
         <v>5332.414602587799</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="13">
         <f>SUM(I2:I47)</f>
         <v>479.99999999999983</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="13">
         <f>SUM(J2:J47)</f>
         <v>2999.9999999999995</v>
       </c>
@@ -9640,7 +9639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69353F6-2301-4972-A735-7E6354FE0F73}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9654,50 +9653,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>84</v>
       </c>
     </row>
@@ -9717,30 +9716,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>663.37999999999977</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>5332.414602587799</v>
       </c>
     </row>
@@ -9750,801 +9749,801 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="29">
-        <v>1</v>
-      </c>
-      <c r="E21" s="29">
+      <c r="D21" s="28">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28">
         <v>20</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="29">
-        <v>1</v>
-      </c>
-      <c r="E22" s="29">
+      <c r="D22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28">
         <v>10</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="29">
-        <v>1</v>
-      </c>
-      <c r="E23" s="29">
+      <c r="D23" s="28">
+        <v>1</v>
+      </c>
+      <c r="E23" s="28">
         <v>5</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="29">
-        <v>1</v>
-      </c>
-      <c r="E24" s="29">
+      <c r="D24" s="28">
+        <v>1</v>
+      </c>
+      <c r="E24" s="28">
         <v>7</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="29">
-        <v>1</v>
-      </c>
-      <c r="E25" s="29">
+      <c r="D25" s="28">
+        <v>1</v>
+      </c>
+      <c r="E25" s="28">
         <v>6</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="29">
-        <v>1</v>
-      </c>
-      <c r="E26" s="29">
+      <c r="D26" s="28">
+        <v>1</v>
+      </c>
+      <c r="E26" s="28">
         <v>8</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="29">
-        <v>1</v>
-      </c>
-      <c r="E27" s="29">
+      <c r="D27" s="28">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28">
         <v>5</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="29">
-        <v>1</v>
-      </c>
-      <c r="E28" s="29">
+      <c r="D28" s="28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="28">
         <v>35</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="29">
+      <c r="D29" s="28">
+        <v>1</v>
+      </c>
+      <c r="E29" s="28">
         <v>14</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="29">
-        <v>1</v>
-      </c>
-      <c r="E30" s="29">
+      <c r="D30" s="28">
+        <v>1</v>
+      </c>
+      <c r="E30" s="28">
         <v>11</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="29">
-        <v>1</v>
-      </c>
-      <c r="E31" s="29">
+      <c r="D31" s="28">
+        <v>1</v>
+      </c>
+      <c r="E31" s="28">
         <v>1.2985212569316416</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="29">
-        <v>1</v>
-      </c>
-      <c r="E32" s="29">
+      <c r="D32" s="28">
+        <v>1</v>
+      </c>
+      <c r="E32" s="28">
         <v>29</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="29">
-        <v>1</v>
-      </c>
-      <c r="E33" s="29">
+      <c r="D33" s="28">
+        <v>1</v>
+      </c>
+      <c r="E33" s="28">
         <v>3</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="29">
-        <v>1</v>
-      </c>
-      <c r="E34" s="29">
+      <c r="D34" s="28">
+        <v>1</v>
+      </c>
+      <c r="E34" s="28">
         <v>18</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="29">
-        <v>1</v>
-      </c>
-      <c r="E35" s="29">
+      <c r="D35" s="28">
+        <v>1</v>
+      </c>
+      <c r="E35" s="28">
         <v>33</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="29">
-        <v>1</v>
-      </c>
-      <c r="E36" s="29">
+      <c r="D36" s="28">
+        <v>1</v>
+      </c>
+      <c r="E36" s="28">
         <v>6</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="29">
-        <v>1</v>
-      </c>
-      <c r="E37" s="29">
+      <c r="D37" s="28">
+        <v>1</v>
+      </c>
+      <c r="E37" s="28">
         <v>18</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="29">
-        <v>1</v>
-      </c>
-      <c r="E38" s="29">
+      <c r="D38" s="28">
+        <v>1</v>
+      </c>
+      <c r="E38" s="28">
         <v>8</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="29">
-        <v>1</v>
-      </c>
-      <c r="E39" s="29">
+      <c r="D39" s="28">
+        <v>1</v>
+      </c>
+      <c r="E39" s="28">
         <v>25</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="29">
-        <v>1</v>
-      </c>
-      <c r="E40" s="29">
-        <v>0</v>
-      </c>
-      <c r="F40" s="27" t="s">
+      <c r="D40" s="28">
+        <v>1</v>
+      </c>
+      <c r="E40" s="28">
+        <v>0</v>
+      </c>
+      <c r="F40" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="29">
-        <v>1</v>
-      </c>
-      <c r="E41" s="29">
-        <v>0</v>
-      </c>
-      <c r="F41" s="27" t="s">
+      <c r="D41" s="28">
+        <v>1</v>
+      </c>
+      <c r="E41" s="28">
+        <v>0</v>
+      </c>
+      <c r="F41" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="29">
-        <v>1</v>
-      </c>
-      <c r="E42" s="29">
-        <v>1</v>
-      </c>
-      <c r="F42" s="27" t="s">
+      <c r="D42" s="28">
+        <v>1</v>
+      </c>
+      <c r="E42" s="28">
+        <v>1</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="29">
-        <v>1</v>
-      </c>
-      <c r="E43" s="29">
+      <c r="D43" s="28">
+        <v>1</v>
+      </c>
+      <c r="E43" s="28">
         <v>2</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="29">
-        <v>1</v>
-      </c>
-      <c r="E44" s="29">
+      <c r="D44" s="28">
+        <v>1</v>
+      </c>
+      <c r="E44" s="28">
         <v>6</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="29">
-        <v>1</v>
-      </c>
-      <c r="E45" s="29">
+      <c r="D45" s="28">
+        <v>1</v>
+      </c>
+      <c r="E45" s="28">
         <v>2</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="29">
-        <v>1</v>
-      </c>
-      <c r="E46" s="29">
+      <c r="D46" s="28">
+        <v>1</v>
+      </c>
+      <c r="E46" s="28">
         <v>6</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="29">
-        <v>1</v>
-      </c>
-      <c r="E47" s="29">
+      <c r="D47" s="28">
+        <v>1</v>
+      </c>
+      <c r="E47" s="28">
         <v>13</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="29">
-        <v>1</v>
-      </c>
-      <c r="E48" s="29">
+      <c r="D48" s="28">
+        <v>1</v>
+      </c>
+      <c r="E48" s="28">
         <v>5</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="29">
-        <v>1</v>
-      </c>
-      <c r="E49" s="29">
+      <c r="D49" s="28">
+        <v>1</v>
+      </c>
+      <c r="E49" s="28">
         <v>12</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="D50" s="29">
-        <v>1</v>
-      </c>
-      <c r="E50" s="29">
+      <c r="D50" s="28">
+        <v>1</v>
+      </c>
+      <c r="E50" s="28">
         <v>3</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="29">
-        <v>1</v>
-      </c>
-      <c r="E51" s="29">
-        <v>0</v>
-      </c>
-      <c r="F51" s="27" t="s">
+      <c r="D51" s="28">
+        <v>1</v>
+      </c>
+      <c r="E51" s="28">
+        <v>0</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="29">
-        <v>1</v>
-      </c>
-      <c r="E52" s="29">
-        <v>1</v>
-      </c>
-      <c r="F52" s="27" t="s">
+      <c r="D52" s="28">
+        <v>1</v>
+      </c>
+      <c r="E52" s="28">
+        <v>1</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="29">
-        <v>1</v>
-      </c>
-      <c r="E53" s="29">
+      <c r="D53" s="28">
+        <v>1</v>
+      </c>
+      <c r="E53" s="28">
         <v>7</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="29">
-        <v>1</v>
-      </c>
-      <c r="E54" s="29">
+      <c r="D54" s="28">
+        <v>1</v>
+      </c>
+      <c r="E54" s="28">
         <v>3</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="29">
-        <v>1</v>
-      </c>
-      <c r="E55" s="29">
-        <v>1</v>
-      </c>
-      <c r="F55" s="27" t="s">
+      <c r="D55" s="28">
+        <v>1</v>
+      </c>
+      <c r="E55" s="28">
+        <v>1</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="29">
-        <v>1</v>
-      </c>
-      <c r="E56" s="29">
-        <v>0</v>
-      </c>
-      <c r="F56" s="27" t="s">
+      <c r="D56" s="28">
+        <v>1</v>
+      </c>
+      <c r="E56" s="28">
+        <v>0</v>
+      </c>
+      <c r="F56" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="29">
-        <v>1</v>
-      </c>
-      <c r="E57" s="29">
+      <c r="D57" s="28">
+        <v>1</v>
+      </c>
+      <c r="E57" s="28">
         <v>7</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="29">
-        <v>1</v>
-      </c>
-      <c r="E58" s="29">
+      <c r="D58" s="28">
+        <v>1</v>
+      </c>
+      <c r="E58" s="28">
         <v>4</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="29">
-        <v>1</v>
-      </c>
-      <c r="E59" s="29">
+      <c r="D59" s="28">
+        <v>1</v>
+      </c>
+      <c r="E59" s="28">
         <v>8</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D60" s="29">
-        <v>1</v>
-      </c>
-      <c r="E60" s="29">
-        <v>1</v>
-      </c>
-      <c r="F60" s="27" t="s">
+      <c r="D60" s="28">
+        <v>1</v>
+      </c>
+      <c r="E60" s="28">
+        <v>1</v>
+      </c>
+      <c r="F60" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="29">
-        <v>1</v>
-      </c>
-      <c r="E61" s="29">
+      <c r="D61" s="28">
+        <v>1</v>
+      </c>
+      <c r="E61" s="28">
         <v>1.2892791127540519</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="29">
-        <v>1</v>
-      </c>
-      <c r="E62" s="29">
+      <c r="D62" s="28">
+        <v>1</v>
+      </c>
+      <c r="E62" s="28">
         <v>7</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="29">
-        <v>1</v>
-      </c>
-      <c r="E63" s="29">
+      <c r="D63" s="28">
+        <v>1</v>
+      </c>
+      <c r="E63" s="28">
         <v>3</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="29">
-        <v>1</v>
-      </c>
-      <c r="E64" s="29">
+      <c r="D64" s="28">
+        <v>1</v>
+      </c>
+      <c r="E64" s="28">
         <v>11</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D65" s="29">
-        <v>1</v>
-      </c>
-      <c r="E65" s="29">
-        <v>1</v>
-      </c>
-      <c r="F65" s="27" t="s">
+      <c r="D65" s="28">
+        <v>1</v>
+      </c>
+      <c r="E65" s="28">
+        <v>1</v>
+      </c>
+      <c r="F65" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="36">
-        <v>1</v>
-      </c>
-      <c r="E66" s="36">
+      <c r="D66" s="35">
+        <v>1</v>
+      </c>
+      <c r="E66" s="35">
         <v>5</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="24" t="s">
         <v>103</v>
       </c>
     </row>
@@ -10554,982 +10553,982 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="G70" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="36">
         <v>39.999999999999993</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G71" s="27">
+      <c r="G71" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D72" s="30">
+      <c r="D72" s="29">
         <v>2999.9999999999995</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E72" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G72" s="27">
+      <c r="G72" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="29">
+      <c r="D73" s="28">
         <v>20</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G73" s="27">
+      <c r="G73" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D74" s="29">
+      <c r="D74" s="28">
         <v>10</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E74" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G74" s="27">
+      <c r="G74" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="28">
         <v>5</v>
       </c>
-      <c r="E75" s="27" t="s">
+      <c r="E75" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="27" t="s">
+      <c r="F75" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G75" s="27">
+      <c r="G75" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="29">
+      <c r="D76" s="28">
         <v>7</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="F76" s="27" t="s">
+      <c r="F76" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G76" s="27">
+      <c r="G76" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="28">
         <v>6</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F77" s="27" t="s">
+      <c r="F77" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G77" s="27">
+      <c r="G77" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="28">
         <v>8</v>
       </c>
-      <c r="E78" s="27" t="s">
+      <c r="E78" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="F78" s="27" t="s">
+      <c r="F78" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G78" s="27">
+      <c r="G78" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D79" s="28">
         <v>5</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="F79" s="27" t="s">
+      <c r="F79" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G79" s="27">
+      <c r="G79" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D80" s="28">
         <v>35</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="E80" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F80" s="27" t="s">
+      <c r="F80" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G80" s="27">
+      <c r="G80" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="29">
+      <c r="D81" s="28">
         <v>14</v>
       </c>
-      <c r="E81" s="27" t="s">
+      <c r="E81" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="F81" s="27" t="s">
+      <c r="F81" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G81" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="29">
+      <c r="D82" s="28">
         <v>11</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="F82" s="27" t="s">
+      <c r="F82" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G82" s="27">
+      <c r="G82" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D83" s="29">
+      <c r="D83" s="28">
         <v>1.2985212569316416</v>
       </c>
-      <c r="E83" s="27" t="s">
+      <c r="E83" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="F83" s="27" t="s">
+      <c r="F83" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="G83" s="27">
+      <c r="G83" s="26">
         <v>5.7014787430683587</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D84" s="29">
+      <c r="D84" s="28">
         <v>29</v>
       </c>
-      <c r="E84" s="27" t="s">
+      <c r="E84" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="F84" s="27" t="s">
+      <c r="F84" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G84" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="29">
+      <c r="D85" s="28">
         <v>3</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E85" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="F85" s="27" t="s">
+      <c r="F85" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G85" s="27">
+      <c r="G85" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D86" s="29">
+      <c r="D86" s="28">
         <v>18</v>
       </c>
-      <c r="E86" s="27" t="s">
+      <c r="E86" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="F86" s="27" t="s">
+      <c r="F86" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G86" s="27">
+      <c r="G86" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D87" s="29">
+      <c r="D87" s="28">
         <v>33</v>
       </c>
-      <c r="E87" s="27" t="s">
+      <c r="E87" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="F87" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G87" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D88" s="29">
+      <c r="D88" s="28">
         <v>6</v>
       </c>
-      <c r="E88" s="27" t="s">
+      <c r="E88" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="F88" s="27" t="s">
+      <c r="F88" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G88" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D89" s="29">
+      <c r="D89" s="28">
         <v>18</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E89" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="F89" s="27" t="s">
+      <c r="F89" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G89" s="27">
+      <c r="G89" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D90" s="29">
+      <c r="D90" s="28">
         <v>8</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="E90" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F90" s="27" t="s">
+      <c r="F90" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G90" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D91" s="29">
+      <c r="D91" s="28">
         <v>25</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="E91" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="F91" s="27" t="s">
+      <c r="F91" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G91" s="27">
+      <c r="G91" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D92" s="29">
-        <v>0</v>
-      </c>
-      <c r="E92" s="27" t="s">
+      <c r="D92" s="28">
+        <v>0</v>
+      </c>
+      <c r="E92" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F92" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="G92" s="27">
+      <c r="G92" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D93" s="29">
-        <v>0</v>
-      </c>
-      <c r="E93" s="27" t="s">
+      <c r="D93" s="28">
+        <v>0</v>
+      </c>
+      <c r="E93" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="F93" s="27" t="s">
+      <c r="F93" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="G93" s="27">
+      <c r="G93" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D94" s="29">
-        <v>1</v>
-      </c>
-      <c r="E94" s="27" t="s">
+      <c r="D94" s="28">
+        <v>1</v>
+      </c>
+      <c r="E94" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="F94" s="27" t="s">
+      <c r="F94" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G94" s="27">
+      <c r="G94" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D95" s="29">
+      <c r="D95" s="28">
         <v>2</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="E95" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F95" s="27" t="s">
+      <c r="F95" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G95" s="27">
+      <c r="G95" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D96" s="29">
+      <c r="D96" s="28">
         <v>6</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E96" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="F96" s="27" t="s">
+      <c r="F96" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G96" s="27">
+      <c r="G96" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D97" s="29">
+      <c r="D97" s="28">
         <v>2</v>
       </c>
-      <c r="E97" s="27" t="s">
+      <c r="E97" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="F97" s="27" t="s">
+      <c r="F97" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G97" s="27">
+      <c r="G97" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D98" s="29">
+      <c r="D98" s="28">
         <v>6</v>
       </c>
-      <c r="E98" s="27" t="s">
+      <c r="E98" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="F98" s="27" t="s">
+      <c r="F98" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G98" s="27">
+      <c r="G98" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D99" s="29">
+      <c r="D99" s="28">
         <v>13</v>
       </c>
-      <c r="E99" s="27" t="s">
+      <c r="E99" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="F99" s="27" t="s">
+      <c r="F99" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G99" s="27">
+      <c r="G99" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C100" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="29">
+      <c r="D100" s="28">
         <v>5</v>
       </c>
-      <c r="E100" s="27" t="s">
+      <c r="E100" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="F100" s="27" t="s">
+      <c r="F100" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G100" s="27">
+      <c r="G100" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C101" s="27" t="s">
+      <c r="C101" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D101" s="29">
+      <c r="D101" s="28">
         <v>12</v>
       </c>
-      <c r="E101" s="27" t="s">
+      <c r="E101" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="F101" s="27" t="s">
+      <c r="F101" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G101" s="27">
+      <c r="G101" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="D102" s="29">
+      <c r="D102" s="28">
         <v>3</v>
       </c>
-      <c r="E102" s="27" t="s">
+      <c r="E102" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="F102" s="27" t="s">
+      <c r="F102" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G102" s="27">
+      <c r="G102" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D103" s="29">
-        <v>0</v>
-      </c>
-      <c r="E103" s="27" t="s">
+      <c r="D103" s="28">
+        <v>0</v>
+      </c>
+      <c r="E103" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="F103" s="27" t="s">
+      <c r="F103" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="G103" s="27">
+      <c r="G103" s="26">
         <v>18</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C104" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D104" s="29">
-        <v>1</v>
-      </c>
-      <c r="E104" s="27" t="s">
+      <c r="D104" s="28">
+        <v>1</v>
+      </c>
+      <c r="E104" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="F104" s="27" t="s">
+      <c r="F104" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G104" s="27">
+      <c r="G104" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="C105" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D105" s="28">
         <v>7</v>
       </c>
-      <c r="E105" s="27" t="s">
+      <c r="E105" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="F105" s="27" t="s">
+      <c r="F105" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G105" s="27">
+      <c r="G105" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="27" t="s">
+      <c r="B106" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C106" s="27" t="s">
+      <c r="C106" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D106" s="29">
+      <c r="D106" s="28">
         <v>3</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E106" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G106" s="27">
+      <c r="G106" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="27" t="s">
+      <c r="B107" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="D107" s="29">
-        <v>1</v>
-      </c>
-      <c r="E107" s="27" t="s">
+      <c r="D107" s="28">
+        <v>1</v>
+      </c>
+      <c r="E107" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="F107" s="27" t="s">
+      <c r="F107" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G107" s="27">
+      <c r="G107" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C108" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D108" s="29">
-        <v>0</v>
-      </c>
-      <c r="E108" s="27" t="s">
+      <c r="D108" s="28">
+        <v>0</v>
+      </c>
+      <c r="E108" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="F108" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G108" s="27">
+      <c r="G108" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C109" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D109" s="29">
+      <c r="D109" s="28">
         <v>7</v>
       </c>
-      <c r="E109" s="27" t="s">
+      <c r="E109" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F109" s="27" t="s">
+      <c r="F109" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G109" s="27">
+      <c r="G109" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="27" t="s">
+      <c r="B110" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C110" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D110" s="29">
+      <c r="D110" s="28">
         <v>4</v>
       </c>
-      <c r="E110" s="27" t="s">
+      <c r="E110" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="F110" s="27" t="s">
+      <c r="F110" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G110" s="27">
+      <c r="G110" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C111" s="27" t="s">
+      <c r="C111" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D111" s="29">
+      <c r="D111" s="28">
         <v>8</v>
       </c>
-      <c r="E111" s="27" t="s">
+      <c r="E111" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="F111" s="27" t="s">
+      <c r="F111" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G111" s="27">
+      <c r="G111" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="27" t="s">
+      <c r="B112" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C112" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D112" s="29">
-        <v>1</v>
-      </c>
-      <c r="E112" s="27" t="s">
+      <c r="D112" s="28">
+        <v>1</v>
+      </c>
+      <c r="E112" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="F112" s="27" t="s">
+      <c r="F112" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G112" s="27">
+      <c r="G112" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C113" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D113" s="29">
+      <c r="D113" s="28">
         <v>1.2892791127540519</v>
       </c>
-      <c r="E113" s="27" t="s">
+      <c r="E113" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="F113" s="27" t="s">
+      <c r="F113" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="G113" s="27">
+      <c r="G113" s="26">
         <v>3.7107208872459481</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D114" s="29">
+      <c r="D114" s="28">
         <v>7</v>
       </c>
-      <c r="E114" s="27" t="s">
+      <c r="E114" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="F114" s="27" t="s">
+      <c r="F114" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G114" s="27">
+      <c r="G114" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B115" s="27" t="s">
+      <c r="B115" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C115" s="27" t="s">
+      <c r="C115" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D115" s="29">
+      <c r="D115" s="28">
         <v>3</v>
       </c>
-      <c r="E115" s="27" t="s">
+      <c r="E115" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F115" s="27" t="s">
+      <c r="F115" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G115" s="27">
+      <c r="G115" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B116" s="27" t="s">
+      <c r="B116" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C116" s="27" t="s">
+      <c r="C116" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D116" s="29">
+      <c r="D116" s="28">
         <v>11</v>
       </c>
-      <c r="E116" s="27" t="s">
+      <c r="E116" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="F116" s="27" t="s">
+      <c r="F116" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G116" s="27">
+      <c r="G116" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C117" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D117" s="29">
-        <v>1</v>
-      </c>
-      <c r="E117" s="27" t="s">
+      <c r="D117" s="28">
+        <v>1</v>
+      </c>
+      <c r="E117" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="F117" s="27" t="s">
+      <c r="F117" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G117" s="27">
+      <c r="G117" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="25" t="s">
+      <c r="B118" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D118" s="36">
+      <c r="D118" s="35">
         <v>5</v>
       </c>
-      <c r="E118" s="25" t="s">
+      <c r="E118" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="F118" s="25" t="s">
+      <c r="F118" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="G118" s="25">
+      <c r="G118" s="24">
         <v>0</v>
       </c>
     </row>
@@ -11542,7 +11541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B956D3-1855-476D-8578-DE1DE6AD0B2E}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11556,17 +11555,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>269</v>
       </c>
     </row>
@@ -11576,1102 +11575,1102 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="30" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="31" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>20</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>1.41146025878005</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>12.929999999999998</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <v>1.41146025878005</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>10</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>0.29390018484289238</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>15.929999999999998</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>0.29390018484289238</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>5</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <v>1.4114602587800482</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>12.929999999999996</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <v>1.4114602587800482</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>7</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <v>1.4114602587800518</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>12.93</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <v>1.4114602587800518</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>6</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>2.8229205175600689</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <v>12.329999999999991</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>2.8229205175600689</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>8</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <v>4.4110905730129435</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <v>10.829999999999998</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="26">
         <v>4.4110905730129435</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>5</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <v>2.822920517560076</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <v>12.329999999999998</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="26">
         <v>2.822920517560076</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>35</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <v>0.29390018484288882</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>15.929999999999993</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="26">
         <v>0.29390018484288882</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>14</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <v>1.4114602587800447</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <v>12.929999999999993</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="26">
         <v>1.4114602587800447</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>11</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <v>1.4114602587800551</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <v>12.930000000000007</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="26">
         <v>1.4114602587800551</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <v>1.2985212569316416</v>
       </c>
-      <c r="E19" s="27">
-        <v>0</v>
-      </c>
-      <c r="F19" s="27">
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
         <v>25.930000000000007</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <v>7.1054273576010003E-15</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="26">
         <v>4.4455882352941192</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>29</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <v>1.5881700554528977</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>12.030000000000001</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="26">
         <v>1.5881700554528977</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>3</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <v>2.8421709430404007E-14</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <v>13.530000000000001</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="26">
         <v>2.8421709430404007E-14</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <v>18</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <v>1.4114602587800409</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <v>25.330000000000013</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>1.4114602587800409</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <v>33</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>2.8229205175600618</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <v>12.329999999999984</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>2.8229205175600618</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="26">
         <v>6</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <v>1.4114602587800409</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="26">
         <v>25.330000000000013</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="26">
         <v>1.4114602587800409</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="26">
         <v>18</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <v>3.3817005545286674</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="26">
         <v>10.830000000000013</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>3.3817005545286674</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="26">
         <v>8</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <v>1.4114602587800551</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="26">
         <v>12.930000000000007</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="26">
         <v>1.4114602587800551</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <v>25</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <v>1.4114602587800551</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="26">
         <v>12.930000000000007</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="26">
         <v>1.4114602587800551</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="27">
-        <v>0</v>
-      </c>
-      <c r="E28" s="27">
+      <c r="D28" s="26">
+        <v>0</v>
+      </c>
+      <c r="E28" s="26">
         <v>-1.1175600739371538</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="26">
         <v>16.529999999999973</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="26">
         <v>1.1175600739371538</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="26">
         <v>1E+30</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="27">
-        <v>0</v>
-      </c>
-      <c r="E29" s="27">
+      <c r="D29" s="26">
+        <v>0</v>
+      </c>
+      <c r="E29" s="26">
         <v>-1.1175600739371538</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="26">
         <v>16.529999999999973</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="26">
         <v>1.1175600739371538</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="26">
         <v>1E+30</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="27">
-        <v>1</v>
-      </c>
-      <c r="E30" s="27">
+      <c r="D30" s="26">
+        <v>1</v>
+      </c>
+      <c r="E30" s="26">
         <v>0.55878003696863487</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="26">
         <v>12.03000000000003</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="26">
         <v>0.55878003696863487</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="26">
         <v>2</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="26">
         <v>2.8229205175600716</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="26">
         <v>12.329999999999984</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="26">
         <v>2.8229205175600716</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="26">
         <v>6</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <v>1.7053604436229133</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="26">
         <v>15.329999999999984</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="26">
         <v>1.7053604436229133</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="26">
         <v>2</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="26">
         <v>1.4114602587800551</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="26">
         <v>12.930000000000007</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="26">
         <v>1.4114602587800551</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="26">
         <v>6</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <v>7.1054273576010019E-15</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="26">
         <v>25.930000000000007</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="26">
         <v>7.1054273576010019E-15</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="26">
         <v>13</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="26">
         <v>1.4114602587800551</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="26">
         <v>12.930000000000007</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="26">
         <v>1.4114602587800551</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="26">
         <v>5</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <v>0.29390018484290104</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="26">
         <v>15.930000000000007</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="26">
         <v>0.29390018484290104</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="26">
         <v>12</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="26">
         <v>2.9996303142329239</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="26">
         <v>11.430000000000007</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="26">
         <v>2.9996303142329239</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <v>3</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <v>3.3817005545286491</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="26">
         <v>10.829999999999984</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <v>3.3817005545286491</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="27">
-        <v>0</v>
-      </c>
-      <c r="E39" s="27">
-        <v>0</v>
-      </c>
-      <c r="F39" s="27">
+      <c r="D39" s="26">
+        <v>0</v>
+      </c>
+      <c r="E39" s="26">
+        <v>0</v>
+      </c>
+      <c r="F39" s="26">
         <v>13.529999999999973</v>
       </c>
-      <c r="G39" s="27">
-        <v>0</v>
-      </c>
-      <c r="H39" s="27">
+      <c r="G39" s="26">
+        <v>0</v>
+      </c>
+      <c r="H39" s="26">
         <v>1E+30</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="27">
-        <v>1</v>
-      </c>
-      <c r="E40" s="27">
+      <c r="D40" s="26">
+        <v>1</v>
+      </c>
+      <c r="E40" s="26">
         <v>0.55878003696857803</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="26">
         <v>12.029999999999973</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="26">
         <v>0.55878003696857803</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="26">
         <v>7</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="26">
         <v>1.4114602587800551</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="26">
         <v>12.930000000000007</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="26">
         <v>1.4114602587800551</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="26">
         <v>3</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <v>0.29390018484290104</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="26">
         <v>15.930000000000007</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="26">
         <v>0.29390018484290104</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="27">
-        <v>1</v>
-      </c>
-      <c r="E43" s="27">
+      <c r="D43" s="26">
+        <v>1</v>
+      </c>
+      <c r="E43" s="26">
         <v>4.4110905730129213</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="26">
         <v>10.829999999999984</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H43" s="26">
         <v>4.4110905730129213</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="27">
-        <v>0</v>
-      </c>
-      <c r="E44" s="27">
+      <c r="D44" s="26">
+        <v>0</v>
+      </c>
+      <c r="E44" s="26">
         <v>2.8229205175600529</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="26">
         <v>12.329999999999984</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="26">
         <v>2.8229205175600529</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="26">
         <v>1E+30</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="26">
         <v>7</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="26">
         <v>0.99963031423291782</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="26">
         <v>15.629999999999995</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="26">
         <v>0.99963031423291782</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="26">
         <v>4</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="26">
         <v>1.9702402957485765</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="26">
         <v>11.42999999999995</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H46" s="27">
+      <c r="H46" s="26">
         <v>1.9702402957485765</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="26">
         <v>8</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="26">
         <v>1.4114602587799983</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="26">
         <v>12.92999999999995</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H47" s="27">
+      <c r="H47" s="26">
         <v>1.4114602587799983</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="27">
-        <v>1</v>
-      </c>
-      <c r="E48" s="27">
+      <c r="D48" s="26">
+        <v>1</v>
+      </c>
+      <c r="E48" s="26">
         <v>1.5881700554528693</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="26">
         <v>12.029999999999973</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H48" s="26">
         <v>1.5881700554528693</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="26">
         <v>1.2892791127540519</v>
       </c>
-      <c r="E49" s="27">
-        <v>0</v>
-      </c>
-      <c r="F49" s="27">
+      <c r="E49" s="26">
+        <v>0</v>
+      </c>
+      <c r="F49" s="26">
         <v>13.529999999999973</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="26">
         <v>2.8421709430404007E-14</v>
       </c>
-      <c r="H49" s="27">
+      <c r="H49" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="26">
         <v>7</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="26">
         <v>1.4114602587800589</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="26">
         <v>25.330000000000041</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G50" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H50" s="27">
+      <c r="H50" s="26">
         <v>1.4114602587800589</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="26">
         <v>3</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="26">
         <v>2.8229205175601098</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51" s="26">
         <v>12.330000000000041</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H51" s="27">
+      <c r="H51" s="26">
         <v>2.8229205175601098</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="26">
         <v>11</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="26">
         <v>2.8229205175601098</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F52" s="26">
         <v>12.330000000000041</v>
       </c>
-      <c r="G52" s="27">
+      <c r="G52" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H52" s="27">
+      <c r="H52" s="26">
         <v>2.8229205175601098</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D53" s="27">
-        <v>1</v>
-      </c>
-      <c r="E53" s="27">
+      <c r="D53" s="26">
+        <v>1</v>
+      </c>
+      <c r="E53" s="26">
         <v>1.4114602587799983</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53" s="26">
         <v>12.92999999999995</v>
       </c>
-      <c r="G53" s="27">
+      <c r="G53" s="26">
         <v>1E+30</v>
       </c>
-      <c r="H53" s="27">
+      <c r="H53" s="26">
         <v>1.4114602587799983</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="24">
         <v>5</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="24">
         <v>2.9996303142328671</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="24">
         <v>11.42999999999995</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="24">
         <v>1E+30</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="24">
         <v>2.9996303142328671</v>
       </c>
     </row>
@@ -12681,90 +12680,90 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31" t="s">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="G57" s="31" t="s">
+      <c r="G57" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="30" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="G58" s="32" t="s">
+      <c r="G58" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="H58" s="32" t="s">
+      <c r="H58" s="31" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="26">
         <v>39.999999999999993</v>
       </c>
-      <c r="E59" s="27">
+      <c r="E59" s="26">
         <v>40.229205175600555</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F59" s="26">
         <v>40</v>
       </c>
-      <c r="G59" s="27">
+      <c r="G59" s="26">
         <v>0.48963414634147712</v>
       </c>
-      <c r="H59" s="27">
+      <c r="H59" s="26">
         <v>0.17012195121949794</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="24">
         <v>2999.9999999999995</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="24">
         <v>1.0293900184842892</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="24">
         <v>3000</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="24">
         <v>29.062499999997474</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H60" s="24">
         <v>20.661764705882874</v>
       </c>
     </row>
@@ -12794,1148 +12793,1148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="F11" s="31" t="s">
+      <c r="D11" s="30"/>
+      <c r="F11" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="31" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>20</v>
       </c>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="G13" s="29">
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
         <v>5073.8146025877986</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <v>20</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>10</v>
       </c>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="G14" s="29">
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
         <v>5173.1146025877988</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <v>10</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>5</v>
       </c>
-      <c r="F15" s="29">
-        <v>0</v>
-      </c>
-      <c r="G15" s="29">
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
         <v>5267.7646025877984</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <v>5</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>7</v>
       </c>
-      <c r="F16" s="29">
-        <v>0</v>
-      </c>
-      <c r="G16" s="29">
+      <c r="F16" s="28">
+        <v>0</v>
+      </c>
+      <c r="G16" s="28">
         <v>5241.9046025877979</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="28">
         <v>7</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>6</v>
       </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" s="29">
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
         <v>5258.4346025877985</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>6</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>8</v>
       </c>
-      <c r="F18" s="29">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29">
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="28">
         <v>5245.7746025877977</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <v>8</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>5</v>
       </c>
-      <c r="F19" s="29">
-        <v>0</v>
-      </c>
-      <c r="G19" s="29">
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28">
         <v>5270.7646025877984</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="28">
         <v>5</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <v>35</v>
       </c>
-      <c r="F20" s="29">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
         <v>4774.8646025877997</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <v>35</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <v>14</v>
       </c>
-      <c r="F21" s="29">
-        <v>0</v>
-      </c>
-      <c r="G21" s="29">
+      <c r="F21" s="28">
+        <v>0</v>
+      </c>
+      <c r="G21" s="28">
         <v>5151.3946025877995</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>14</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>11</v>
       </c>
-      <c r="F22" s="29">
-        <v>0</v>
-      </c>
-      <c r="G22" s="29">
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
         <v>5190.1846025877994</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <v>11</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="28">
         <v>1.2985212569316416</v>
       </c>
-      <c r="F23" s="29">
-        <v>0</v>
-      </c>
-      <c r="G23" s="29">
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
         <v>5298.7439463955616</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <v>1.2985212569316524</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="28">
         <v>29</v>
       </c>
-      <c r="F24" s="29">
-        <v>0</v>
-      </c>
-      <c r="G24" s="29">
+      <c r="F24" s="28">
+        <v>0</v>
+      </c>
+      <c r="G24" s="28">
         <v>4983.5446025877991</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="28">
         <v>28.999999999999748</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="28">
         <v>5332.4146025877953</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <v>3</v>
       </c>
-      <c r="F25" s="29">
-        <v>0</v>
-      </c>
-      <c r="G25" s="29">
+      <c r="F25" s="28">
+        <v>0</v>
+      </c>
+      <c r="G25" s="28">
         <v>5291.8246025877988</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <v>3</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <v>18</v>
       </c>
-      <c r="F26" s="29">
-        <v>0</v>
-      </c>
-      <c r="G26" s="29">
+      <c r="F26" s="28">
+        <v>0</v>
+      </c>
+      <c r="G26" s="28">
         <v>4876.4746025877994</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <v>18</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <v>33</v>
       </c>
-      <c r="F27" s="29">
-        <v>0</v>
-      </c>
-      <c r="G27" s="29">
+      <c r="F27" s="28">
+        <v>0</v>
+      </c>
+      <c r="G27" s="28">
         <v>4925.5246025877996</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <v>32.999999999999901</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="28">
         <v>5332.4146025877981</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <v>6</v>
       </c>
-      <c r="F28" s="29">
-        <v>0</v>
-      </c>
-      <c r="G28" s="29">
+      <c r="F28" s="28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="28">
         <v>5180.4346025877994</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <v>6</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="28">
         <v>18</v>
       </c>
-      <c r="F29" s="29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="29">
+      <c r="F29" s="28">
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
         <v>5137.4746025877994</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="28">
         <v>18</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <v>8</v>
       </c>
-      <c r="F30" s="29">
-        <v>0</v>
-      </c>
-      <c r="G30" s="29">
+      <c r="F30" s="28">
+        <v>0</v>
+      </c>
+      <c r="G30" s="28">
         <v>5228.9746025877985</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <v>8</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="28">
         <v>25</v>
       </c>
-      <c r="F31" s="29">
-        <v>0</v>
-      </c>
-      <c r="G31" s="29">
+      <c r="F31" s="28">
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
         <v>5009.1646025877999</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <v>25</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="29">
-        <v>0</v>
-      </c>
-      <c r="F32" s="29">
-        <v>0</v>
-      </c>
-      <c r="G32" s="29">
+      <c r="D32" s="28">
+        <v>0</v>
+      </c>
+      <c r="F32" s="28">
+        <v>0</v>
+      </c>
+      <c r="G32" s="28">
         <v>5332.414602587799</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="28">
         <v>4.1796631515299591E-14</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="28">
         <v>5332.4146025877999</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="29">
-        <v>0</v>
-      </c>
-      <c r="F33" s="29">
-        <v>0</v>
-      </c>
-      <c r="G33" s="29">
+      <c r="D33" s="28">
+        <v>0</v>
+      </c>
+      <c r="F33" s="28">
+        <v>0</v>
+      </c>
+      <c r="G33" s="28">
         <v>5332.414602587799</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <v>4.1796631515299591E-14</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="28">
         <v>5332.4146025877999</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="29">
-        <v>1</v>
-      </c>
-      <c r="F34" s="29">
-        <v>0</v>
-      </c>
-      <c r="G34" s="29">
+      <c r="D34" s="28">
+        <v>1</v>
+      </c>
+      <c r="F34" s="28">
+        <v>0</v>
+      </c>
+      <c r="G34" s="28">
         <v>5320.3846025877983</v>
       </c>
-      <c r="I34" s="29">
-        <v>1</v>
-      </c>
-      <c r="J34" s="29">
+      <c r="I34" s="28">
+        <v>1</v>
+      </c>
+      <c r="J34" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="28">
         <v>2</v>
       </c>
-      <c r="F35" s="29">
-        <v>0</v>
-      </c>
-      <c r="G35" s="29">
+      <c r="F35" s="28">
+        <v>0</v>
+      </c>
+      <c r="G35" s="28">
         <v>5307.7546025877991</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="28">
         <v>2</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="28">
         <v>6</v>
       </c>
-      <c r="F36" s="29">
-        <v>0</v>
-      </c>
-      <c r="G36" s="29">
+      <c r="F36" s="28">
+        <v>0</v>
+      </c>
+      <c r="G36" s="28">
         <v>5240.4346025877985</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="28">
         <v>6</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J36" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="28">
         <v>2</v>
       </c>
-      <c r="F37" s="29">
-        <v>0</v>
-      </c>
-      <c r="G37" s="29">
+      <c r="F37" s="28">
+        <v>0</v>
+      </c>
+      <c r="G37" s="28">
         <v>5306.5546025877984</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="28">
         <v>2</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="28">
         <v>6</v>
       </c>
-      <c r="F38" s="29">
-        <v>0</v>
-      </c>
-      <c r="G38" s="29">
+      <c r="F38" s="28">
+        <v>0</v>
+      </c>
+      <c r="G38" s="28">
         <v>5176.8346025877991</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="28">
         <v>6</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="28">
         <v>13</v>
       </c>
-      <c r="F39" s="29">
-        <v>0</v>
-      </c>
-      <c r="G39" s="29">
+      <c r="F39" s="28">
+        <v>0</v>
+      </c>
+      <c r="G39" s="28">
         <v>5164.3246025877988</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="28">
         <v>12.999999999999527</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="28">
         <v>5332.4146025877926</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="28">
         <v>5</v>
       </c>
-      <c r="F40" s="29">
-        <v>0</v>
-      </c>
-      <c r="G40" s="29">
+      <c r="F40" s="28">
+        <v>0</v>
+      </c>
+      <c r="G40" s="28">
         <v>5252.7646025877993</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="28">
         <v>5</v>
       </c>
-      <c r="J40" s="29">
+      <c r="J40" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="28">
         <v>12</v>
       </c>
-      <c r="F41" s="29">
-        <v>0</v>
-      </c>
-      <c r="G41" s="29">
+      <c r="F41" s="28">
+        <v>0</v>
+      </c>
+      <c r="G41" s="28">
         <v>5195.2546025877991</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="28">
         <v>12</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="28">
         <v>3</v>
       </c>
-      <c r="F42" s="29">
-        <v>0</v>
-      </c>
-      <c r="G42" s="29">
+      <c r="F42" s="28">
+        <v>0</v>
+      </c>
+      <c r="G42" s="28">
         <v>5299.9246025877992</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="28">
         <v>3</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D43" s="29">
-        <v>0</v>
-      </c>
-      <c r="F43" s="29">
-        <v>0</v>
-      </c>
-      <c r="G43" s="29">
+      <c r="D43" s="28">
+        <v>0</v>
+      </c>
+      <c r="F43" s="28">
+        <v>0</v>
+      </c>
+      <c r="G43" s="28">
         <v>5332.414602587799</v>
       </c>
-      <c r="I43" s="29">
+      <c r="I43" s="28">
         <v>4.1796631515299591E-14</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="28">
         <v>5332.4146025877999</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="29">
-        <v>1</v>
-      </c>
-      <c r="F44" s="29">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29">
+      <c r="D44" s="28">
+        <v>1</v>
+      </c>
+      <c r="F44" s="28">
+        <v>0</v>
+      </c>
+      <c r="G44" s="28">
         <v>5320.3846025877992</v>
       </c>
-      <c r="I44" s="29">
-        <v>1</v>
-      </c>
-      <c r="J44" s="29">
+      <c r="I44" s="28">
+        <v>1</v>
+      </c>
+      <c r="J44" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="28">
         <v>7</v>
       </c>
-      <c r="F45" s="29">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29">
+      <c r="F45" s="28">
+        <v>0</v>
+      </c>
+      <c r="G45" s="28">
         <v>5241.9046025877988</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="28">
         <v>7</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J45" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="28">
         <v>3</v>
       </c>
-      <c r="F46" s="29">
-        <v>0</v>
-      </c>
-      <c r="G46" s="29">
+      <c r="F46" s="28">
+        <v>0</v>
+      </c>
+      <c r="G46" s="28">
         <v>5284.624602587799</v>
       </c>
-      <c r="I46" s="29">
+      <c r="I46" s="28">
         <v>3</v>
       </c>
-      <c r="J46" s="29">
+      <c r="J46" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="D47" s="29">
-        <v>1</v>
-      </c>
-      <c r="F47" s="29">
-        <v>0</v>
-      </c>
-      <c r="G47" s="29">
+      <c r="D47" s="28">
+        <v>1</v>
+      </c>
+      <c r="F47" s="28">
+        <v>0</v>
+      </c>
+      <c r="G47" s="28">
         <v>5321.5846025877991</v>
       </c>
-      <c r="I47" s="29">
-        <v>1</v>
-      </c>
-      <c r="J47" s="29">
+      <c r="I47" s="28">
+        <v>1</v>
+      </c>
+      <c r="J47" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D48" s="29">
-        <v>0</v>
-      </c>
-      <c r="F48" s="29">
-        <v>0</v>
-      </c>
-      <c r="G48" s="29">
+      <c r="D48" s="28">
+        <v>0</v>
+      </c>
+      <c r="F48" s="28">
+        <v>0</v>
+      </c>
+      <c r="G48" s="28">
         <v>5332.414602587799</v>
       </c>
-      <c r="I48" s="29">
-        <v>0</v>
-      </c>
-      <c r="J48" s="29">
+      <c r="I48" s="28">
+        <v>0</v>
+      </c>
+      <c r="J48" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="28">
         <v>7</v>
       </c>
-      <c r="F49" s="29">
-        <v>0</v>
-      </c>
-      <c r="G49" s="29">
+      <c r="F49" s="28">
+        <v>0</v>
+      </c>
+      <c r="G49" s="28">
         <v>5223.0046025877991</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="28">
         <v>7</v>
       </c>
-      <c r="J49" s="29">
+      <c r="J49" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="28">
         <v>4</v>
       </c>
-      <c r="F50" s="29">
-        <v>0</v>
-      </c>
-      <c r="G50" s="29">
+      <c r="F50" s="28">
+        <v>0</v>
+      </c>
+      <c r="G50" s="28">
         <v>5286.6946025877987</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="28">
         <v>4</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J50" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="28">
         <v>8</v>
       </c>
-      <c r="F51" s="29">
-        <v>0</v>
-      </c>
-      <c r="G51" s="29">
+      <c r="F51" s="28">
+        <v>0</v>
+      </c>
+      <c r="G51" s="28">
         <v>5228.9746025877994</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I51" s="28">
         <v>8</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J51" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="29">
-        <v>1</v>
-      </c>
-      <c r="F52" s="29">
-        <v>0</v>
-      </c>
-      <c r="G52" s="29">
+      <c r="D52" s="28">
+        <v>1</v>
+      </c>
+      <c r="F52" s="28">
+        <v>0</v>
+      </c>
+      <c r="G52" s="28">
         <v>5320.3846025877992</v>
       </c>
-      <c r="I52" s="29">
-        <v>1</v>
-      </c>
-      <c r="J52" s="29">
+      <c r="I52" s="28">
+        <v>1</v>
+      </c>
+      <c r="J52" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="28">
         <v>1.2892791127540519</v>
       </c>
-      <c r="F53" s="29">
-        <v>0</v>
-      </c>
-      <c r="G53" s="29">
+      <c r="F53" s="28">
+        <v>0</v>
+      </c>
+      <c r="G53" s="28">
         <v>5314.9706561922367</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I53" s="28">
         <v>1.289279112754061</v>
       </c>
-      <c r="J53" s="29">
+      <c r="J53" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="28">
         <v>7</v>
       </c>
-      <c r="F54" s="29">
-        <v>0</v>
-      </c>
-      <c r="G54" s="29">
+      <c r="F54" s="28">
+        <v>0</v>
+      </c>
+      <c r="G54" s="28">
         <v>5155.1046025877986</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="28">
         <v>7</v>
       </c>
-      <c r="J54" s="29">
+      <c r="J54" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="28">
         <v>3</v>
       </c>
-      <c r="F55" s="29">
-        <v>0</v>
-      </c>
-      <c r="G55" s="29">
+      <c r="F55" s="28">
+        <v>0</v>
+      </c>
+      <c r="G55" s="28">
         <v>5295.4246025877992</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I55" s="28">
         <v>3</v>
       </c>
-      <c r="J55" s="29">
+      <c r="J55" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="28">
         <v>11</v>
       </c>
-      <c r="F56" s="29">
-        <v>0</v>
-      </c>
-      <c r="G56" s="29">
+      <c r="F56" s="28">
+        <v>0</v>
+      </c>
+      <c r="G56" s="28">
         <v>5196.7846025877989</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I56" s="28">
         <v>11</v>
       </c>
-      <c r="J56" s="29">
+      <c r="J56" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D57" s="29">
-        <v>1</v>
-      </c>
-      <c r="F57" s="29">
-        <v>0</v>
-      </c>
-      <c r="G57" s="29">
+      <c r="D57" s="28">
+        <v>1</v>
+      </c>
+      <c r="F57" s="28">
+        <v>0</v>
+      </c>
+      <c r="G57" s="28">
         <v>5319.4846025877987</v>
       </c>
-      <c r="I57" s="29">
-        <v>1</v>
-      </c>
-      <c r="J57" s="29">
+      <c r="I57" s="28">
+        <v>1</v>
+      </c>
+      <c r="J57" s="28">
         <v>5332.414602587799</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="35">
         <v>5</v>
       </c>
-      <c r="F58" s="36">
-        <v>0</v>
-      </c>
-      <c r="G58" s="36">
+      <c r="F58" s="35">
+        <v>0</v>
+      </c>
+      <c r="G58" s="35">
         <v>5275.2646025877993</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="35">
         <v>5</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="35">
         <v>5332.414602587799</v>
       </c>
     </row>
